--- a/Ej1/Mediciones/ej1-ca-c1.xlsx
+++ b/Ej1/Mediciones/ej1-ca-c1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Documents\GitHub\TC_TP2\Ej1\Mediciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Desktop\Ej1\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -109,10 +109,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,7 +190,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11291863517060367"/>
-          <c:y val="4.2083333333333355E-2"/>
+          <c:y val="2.8194444444444446E-2"/>
           <c:w val="0.85722134733158351"/>
           <c:h val="0.5791557305336833"/>
         </c:manualLayout>
@@ -476,11 +476,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-445165488"/>
-        <c:axId val="-445173648"/>
+        <c:axId val="316134064"/>
+        <c:axId val="316124816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-445165488"/>
+        <c:axId val="316134064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +523,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-445173648"/>
+        <c:crossAx val="316124816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -531,7 +531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-445173648"/>
+        <c:axId val="316124816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +582,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-445165488"/>
+        <c:crossAx val="316134064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1191,16 +1191,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1004887</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,26 +1497,26 @@
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" customWidth="1"/>
     <col min="25" max="25" width="23.140625" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1592,20 +1592,20 @@
         <v>173</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R28" si="0">LOG10(1000*L3)</f>
+        <f t="shared" ref="R3:R5" si="0">LOG10(1000*L3)</f>
         <v>4.6020599913279625</v>
       </c>
       <c r="T3">
         <v>40</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1625,11 +1625,11 @@
         <v>175</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G41" si="2">A4*1000</f>
+        <f t="shared" ref="G4:G46" si="2">A4*1000</f>
         <v>5800</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H41" si="3">LOG10(G4)</f>
+        <f t="shared" ref="H4:H46" si="3">LOG10(G4)</f>
         <v>3.7634279935629373</v>
       </c>
       <c r="K4" s="1"/>
@@ -1665,7 +1665,7 @@
       <c r="AA4" t="s">
         <v>2</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC4" t="s">
@@ -1730,7 +1730,7 @@
       <c r="AA5">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="2">
         <f t="shared" ref="AB5:AB38" si="5">20*LOG10(AA5/Z5)</f>
         <v>-19.157384135460852</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="AA6">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="2">
         <f t="shared" si="5"/>
         <v>-19.30475787481576</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="AA7">
         <v>0.05</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="2">
         <f t="shared" si="5"/>
         <v>-19.64542466079137</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>120</v>
       </c>
       <c r="O8" t="e">
-        <f t="shared" ref="O8:O9" si="6">20*LOG10(N8/M8)</f>
+        <f t="shared" ref="O8" si="6">20*LOG10(N8/M8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T8">
@@ -1900,7 +1900,7 @@
       <c r="AA8">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="2">
         <f t="shared" si="5"/>
         <v>-19.981885520779517</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>140</v>
       </c>
       <c r="O9" t="e">
-        <f>20*LOG10(N9/M9)</f>
+        <f t="shared" ref="O9:O31" si="7">20*LOG10(N9/M9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T9">
@@ -1952,7 +1952,7 @@
       <c r="AA9">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="2">
         <f t="shared" si="5"/>
         <v>-20.506117305295405</v>
       </c>
@@ -1995,14 +1995,14 @@
         <v>0.89600000000000002</v>
       </c>
       <c r="O10">
-        <f>20*LOG10(N10/M10)</f>
+        <f t="shared" si="7"/>
         <v>-0.67134695292536917</v>
       </c>
       <c r="P10">
         <v>150</v>
       </c>
       <c r="R10">
-        <f>LOG10(1000*L10)</f>
+        <f t="shared" ref="R10:R31" si="8">LOG10(1000*L10)</f>
         <v>5.1760912590556813</v>
       </c>
       <c r="T10">
@@ -2017,7 +2017,7 @@
       <c r="AA10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="2">
         <f t="shared" si="5"/>
         <v>-21.105381772844268</v>
       </c>
@@ -2060,14 +2060,14 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="O11">
-        <f>20*LOG10(N11/M11)</f>
+        <f t="shared" si="7"/>
         <v>-0.76717536975287592</v>
       </c>
       <c r="P11">
         <v>149</v>
       </c>
       <c r="R11">
-        <f>LOG10(1000*L11)</f>
+        <f t="shared" si="8"/>
         <v>5.3010299956639813</v>
       </c>
       <c r="T11">
@@ -2082,7 +2082,7 @@
       <c r="AA11">
         <v>3.9E-2</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="2">
         <f t="shared" si="5"/>
         <v>-21.712580051967343</v>
       </c>
@@ -2125,14 +2125,14 @@
         <v>0.42</v>
       </c>
       <c r="O12">
-        <f>20*LOG10(N12/M12)</f>
+        <f t="shared" si="7"/>
         <v>-1.2498489640872636</v>
       </c>
       <c r="P12">
         <v>138</v>
       </c>
       <c r="R12">
-        <f>LOG10(1000*L12)</f>
+        <f t="shared" si="8"/>
         <v>5.3979400086720375</v>
       </c>
       <c r="T12">
@@ -2147,7 +2147,7 @@
       <c r="AA12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="2">
         <f t="shared" si="5"/>
         <v>-22.389516818135956</v>
       </c>
@@ -2190,14 +2190,14 @@
         <v>0.24</v>
       </c>
       <c r="O13">
-        <f>20*LOG10(N13/M13)</f>
+        <f t="shared" si="7"/>
         <v>-1.6736349454860246</v>
       </c>
       <c r="P13">
         <v>138</v>
       </c>
       <c r="R13">
-        <f>LOG10(1000*L13)</f>
+        <f t="shared" si="8"/>
         <v>5.4771212547196626</v>
       </c>
       <c r="T13">
@@ -2212,7 +2212,7 @@
       <c r="AA13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13" s="2">
         <f t="shared" si="5"/>
         <v>-22.615861927750718</v>
       </c>
@@ -2255,14 +2255,14 @@
         <v>0.23699999999999999</v>
       </c>
       <c r="O14">
-        <f>20*LOG10(N14/M14)</f>
+        <f t="shared" si="7"/>
         <v>-1.7529930377770446</v>
       </c>
       <c r="P14">
         <v>135</v>
       </c>
       <c r="R14">
-        <f>LOG10(1000*L14)</f>
+        <f t="shared" si="8"/>
         <v>5.5051499783199063</v>
       </c>
       <c r="T14">
@@ -2277,7 +2277,7 @@
       <c r="AA14">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="2">
         <f t="shared" si="5"/>
         <v>-22.867644473911128</v>
       </c>
@@ -2320,14 +2320,14 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="O15">
-        <f>20*LOG10(N15/M15)</f>
+        <f t="shared" si="7"/>
         <v>-1.923339880765508</v>
       </c>
       <c r="P15">
         <v>135</v>
       </c>
       <c r="R15">
-        <f>LOG10(1000*L15)</f>
+        <f t="shared" si="8"/>
         <v>5.5185139398778871</v>
       </c>
       <c r="T15">
@@ -2342,7 +2342,7 @@
       <c r="AA15">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="2">
         <f t="shared" si="5"/>
         <v>-22.867644473911128</v>
       </c>
@@ -2385,14 +2385,14 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="O16">
-        <f>20*LOG10(N16/M16)</f>
+        <f t="shared" si="7"/>
         <v>-1.9978973311503716</v>
       </c>
       <c r="P16">
         <v>133</v>
       </c>
       <c r="R16">
-        <f>LOG10(1000*L16)</f>
+        <f t="shared" si="8"/>
         <v>5.5314789170422554</v>
       </c>
       <c r="T16">
@@ -2407,7 +2407,7 @@
       <c r="AA16">
         <v>3.1E-2</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="2">
         <f t="shared" si="5"/>
         <v>-23.651606095996303</v>
       </c>
@@ -2450,14 +2450,14 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="O17">
-        <f>20*LOG10(N17/M17)</f>
+        <f t="shared" si="7"/>
         <v>-2.0275927092641943</v>
       </c>
       <c r="P17">
         <v>132</v>
       </c>
       <c r="R17">
-        <f>LOG10(1000*L17)</f>
+        <f t="shared" si="8"/>
         <v>5.5440680443502757</v>
       </c>
       <c r="T17">
@@ -2472,7 +2472,7 @@
       <c r="AA17">
         <v>0.03</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="2">
         <f t="shared" si="5"/>
         <v>-23.881031759908417</v>
       </c>
@@ -2515,14 +2515,14 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="O18">
-        <f>20*LOG10(N18/M18)</f>
+        <f t="shared" si="7"/>
         <v>-2.2168352632197337</v>
       </c>
       <c r="P18">
         <v>130</v>
       </c>
       <c r="R18">
-        <f>LOG10(1000*L18)</f>
+        <f t="shared" si="8"/>
         <v>5.5563025007672868</v>
       </c>
       <c r="T18">
@@ -2537,7 +2537,7 @@
       <c r="AA18">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="2">
         <f t="shared" si="5"/>
         <v>-26.810770738953096</v>
       </c>
@@ -2580,14 +2580,14 @@
         <v>0.224</v>
       </c>
       <c r="O19">
-        <f>20*LOG10(N19/M19)</f>
+        <f t="shared" si="7"/>
         <v>-2.3323920403989322</v>
       </c>
       <c r="P19">
         <v>130</v>
       </c>
       <c r="R19">
-        <f>LOG10(1000*L19)</f>
+        <f t="shared" si="8"/>
         <v>5.568201724066995</v>
       </c>
       <c r="T19">
@@ -2602,7 +2602,7 @@
       <c r="AA19">
         <v>1.6E-2</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19" s="2">
         <f t="shared" si="5"/>
         <v>-29.001131184440716</v>
       </c>
@@ -2645,14 +2645,14 @@
         <v>0.222</v>
       </c>
       <c r="O20">
-        <f>20*LOG10(N20/M20)</f>
+        <f t="shared" si="7"/>
         <v>-2.4102929180694157</v>
       </c>
       <c r="P20">
         <v>129</v>
       </c>
       <c r="R20">
-        <f>LOG10(1000*L20)</f>
+        <f t="shared" si="8"/>
         <v>5.5797835966168101</v>
       </c>
       <c r="T20">
@@ -2667,7 +2667,7 @@
       <c r="AA20">
         <v>0.1</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="2">
         <f t="shared" si="5"/>
         <v>-19.708529481660033</v>
       </c>
@@ -2710,20 +2710,20 @@
         <v>0.219</v>
       </c>
       <c r="O21">
-        <f>20*LOG10(N21/M21)</f>
+        <f t="shared" si="7"/>
         <v>-2.5284701102798222</v>
       </c>
       <c r="P21">
         <v>128</v>
       </c>
       <c r="R21">
-        <f>LOG10(1000*L21)</f>
+        <f t="shared" si="8"/>
         <v>5.5910646070264995</v>
       </c>
       <c r="T21">
         <v>420</v>
       </c>
-      <c r="AB21" s="3" t="e">
+      <c r="AB21" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2763,20 +2763,20 @@
         <v>0.2185</v>
       </c>
       <c r="O22">
-        <f>20*LOG10(N22/M22)</f>
+        <f t="shared" si="7"/>
         <v>-2.548323580953376</v>
       </c>
       <c r="P22">
         <v>127</v>
       </c>
       <c r="R22">
-        <f>LOG10(1000*L22)</f>
+        <f t="shared" si="8"/>
         <v>5.6020599913279625</v>
       </c>
       <c r="T22">
         <v>430</v>
       </c>
-      <c r="AB22" s="3" t="e">
+      <c r="AB22" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2816,20 +2816,20 @@
         <v>0.21299999999999999</v>
       </c>
       <c r="O23">
-        <f>20*LOG10(N23/M23)</f>
+        <f t="shared" si="7"/>
         <v>-2.7697603383074343</v>
       </c>
       <c r="P23">
         <v>125</v>
       </c>
       <c r="R23">
-        <f>LOG10(1000*L23)</f>
+        <f t="shared" si="8"/>
         <v>5.6127838567197355</v>
       </c>
       <c r="T23">
         <v>470</v>
       </c>
-      <c r="AB23" s="3" t="e">
+      <c r="AB23" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2869,20 +2869,20 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="O24">
-        <f>20*LOG10(N24/M24)</f>
+        <f t="shared" si="7"/>
         <v>-2.8517033011283348</v>
       </c>
       <c r="P24">
         <v>125</v>
       </c>
       <c r="R24">
-        <f>LOG10(1000*L24)</f>
+        <f t="shared" si="8"/>
         <v>5.6232492903979008</v>
       </c>
       <c r="T24">
         <v>500</v>
       </c>
-      <c r="AB24" s="3" t="e">
+      <c r="AB24" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2922,20 +2922,20 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="O25">
-        <f>20*LOG10(N25/M25)</f>
+        <f t="shared" si="7"/>
         <v>-2.9760857078269582</v>
       </c>
       <c r="P25">
         <v>124</v>
       </c>
       <c r="R25">
-        <f>LOG10(1000*L25)</f>
+        <f t="shared" si="8"/>
         <v>5.6334684555795862</v>
       </c>
       <c r="T25">
         <v>550</v>
       </c>
-      <c r="AB25" s="3" t="e">
+      <c r="AB25" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -2975,20 +2975,20 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="O26">
-        <f>20*LOG10(N26/M26)</f>
+        <f t="shared" si="7"/>
         <v>-3.1447490585642135</v>
       </c>
       <c r="P26">
         <v>123</v>
       </c>
       <c r="R26">
-        <f>LOG10(1000*L26)</f>
+        <f t="shared" si="8"/>
         <v>5.6720978579357171</v>
       </c>
       <c r="T26">
         <v>600</v>
       </c>
-      <c r="AB26" s="3" t="e">
+      <c r="AB26" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3028,20 +3028,20 @@
         <v>0.189</v>
       </c>
       <c r="O27">
-        <f>20*LOG10(N27/M27)</f>
+        <f t="shared" si="7"/>
         <v>-3.8377105247782621</v>
       </c>
       <c r="P27">
         <v>117</v>
       </c>
       <c r="R27">
-        <f>LOG10(1000*L27)</f>
+        <f t="shared" si="8"/>
         <v>5.6989700043360187</v>
       </c>
       <c r="T27">
         <v>650</v>
       </c>
-      <c r="AB27" s="3" t="e">
+      <c r="AB27" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3081,20 +3081,20 @@
         <v>0.126</v>
       </c>
       <c r="O28">
-        <f>20*LOG10(N28/M28)</f>
+        <f t="shared" si="7"/>
         <v>-3.8819136208805998</v>
       </c>
       <c r="P28">
         <v>115</v>
       </c>
       <c r="R28">
-        <f>LOG10(1000*L28)</f>
+        <f t="shared" si="8"/>
         <v>5.7403626894942441</v>
       </c>
       <c r="T28">
         <v>700</v>
       </c>
-      <c r="AB28" s="3" t="e">
+      <c r="AB28" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3134,17 +3134,17 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="O29">
-        <f>20*LOG10(N29/M29)</f>
+        <f t="shared" si="7"/>
         <v>-4.4516843771093519</v>
       </c>
       <c r="P29">
         <v>112</v>
       </c>
       <c r="R29">
-        <f>LOG10(1000*L29)</f>
+        <f t="shared" si="8"/>
         <v>5.7781512503836439</v>
       </c>
-      <c r="AB29" s="3" t="e">
+      <c r="AB29" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3184,17 +3184,17 @@
         <v>0.112</v>
       </c>
       <c r="O30">
-        <f>20*LOG10(N30/M30)</f>
+        <f t="shared" si="7"/>
         <v>-4.9049640698282264</v>
       </c>
       <c r="P30">
         <v>109</v>
       </c>
       <c r="R30">
-        <f>LOG10(1000*L30)</f>
+        <f t="shared" si="8"/>
         <v>5.8129133566428557</v>
       </c>
-      <c r="AB30" s="3" t="e">
+      <c r="AB30" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3234,17 +3234,17 @@
         <v>0.106</v>
       </c>
       <c r="O31">
-        <f>20*LOG10(N31/M31)</f>
+        <f t="shared" si="7"/>
         <v>-5.3832072179364543</v>
       </c>
       <c r="P31">
         <v>106</v>
       </c>
       <c r="R31">
-        <f>LOG10(1000*L31)</f>
+        <f t="shared" si="8"/>
         <v>5.8450980400142569</v>
       </c>
-      <c r="AB31" s="3" t="e">
+      <c r="AB31" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3278,7 +3278,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB32" s="3" t="e">
+      <c r="AB32" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3308,7 +3308,7 @@
         <f t="shared" si="3"/>
         <v>4.7573960287930239</v>
       </c>
-      <c r="AB33" s="3" t="e">
+      <c r="AB33" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3338,7 +3338,7 @@
         <f t="shared" si="3"/>
         <v>4.7619278384205295</v>
       </c>
-      <c r="AB34" s="3" t="e">
+      <c r="AB34" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3368,7 +3368,7 @@
         <f t="shared" si="3"/>
         <v>4.7634279935629369</v>
       </c>
-      <c r="AB35" s="3" t="e">
+      <c r="AB35" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3398,7 +3398,7 @@
         <f t="shared" si="3"/>
         <v>4.7781512503836439</v>
       </c>
-      <c r="AB36" s="3" t="e">
+      <c r="AB36" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3428,7 +3428,7 @@
         <f t="shared" si="3"/>
         <v>4.7853298350107671</v>
       </c>
-      <c r="AB37" s="3" t="e">
+      <c r="AB37" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3458,7 +3458,7 @@
         <f t="shared" si="3"/>
         <v>4.7923916894982534</v>
       </c>
-      <c r="AB38" s="3" t="e">
+      <c r="AB38" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -3542,33 +3542,133 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A42">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>16.353195833346344</v>
+      </c>
+      <c r="E42">
+        <v>122</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>70000</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>4.8450980400142569</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D43" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A43">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>16.009291466552462</v>
+      </c>
+      <c r="E43">
+        <v>120</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>75000</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>4.8750612633917001</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A44">
+        <v>80</v>
+      </c>
+      <c r="B44">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>15.665817800721094</v>
+      </c>
+      <c r="E44">
+        <v>118</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>4.9030899869919438</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A45">
+        <v>85</v>
+      </c>
+      <c r="B45">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>15.292975599599929</v>
+      </c>
+      <c r="E45">
+        <v>115</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>4.9294189257142929</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D46" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>14.935225012818718</v>
+      </c>
+      <c r="E46">
+        <v>113</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>90000</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>4.9542425094393252</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
@@ -3743,19 +3843,19 @@
     </row>
     <row r="68" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D68" t="e">
-        <f t="shared" ref="D68:D70" si="7">20*LOG10(C68/B68)</f>
+        <f t="shared" ref="D68:D70" si="9">20*LOG10(C68/B68)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D69" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D70" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Ej1/Mediciones/ej1-ca-c1.xlsx
+++ b/Ej1/Mediciones/ej1-ca-c1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Desktop\Ej1\Mediciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Documents\GitHub\TC_TP2\Ej1\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>circuito 1  - caso 1 x10</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>circuito 1  - caso 1x1</t>
-  </si>
-  <si>
-    <t>400 (SON cuatrocientos)</t>
   </si>
 </sst>
 </file>
@@ -476,11 +473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="316134064"/>
-        <c:axId val="316124816"/>
+        <c:axId val="-1778775184"/>
+        <c:axId val="-1778776816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="316134064"/>
+        <c:axId val="-1778775184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +520,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316124816"/>
+        <c:crossAx val="-1778776816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -531,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316124816"/>
+        <c:axId val="-1778776816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +579,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316134064"/>
+        <c:crossAx val="-1778775184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E46"/>
+    <sheetView tabSelected="1" topLeftCell="M6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC6" activeCellId="1" sqref="Y6:AA30 AC6:AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,21 +1718,9 @@
       <c r="T5">
         <v>60</v>
       </c>
-      <c r="Y5">
-        <v>1000</v>
-      </c>
-      <c r="Z5">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="AA5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="AB5" s="2">
-        <f t="shared" ref="AB5:AB38" si="5">20*LOG10(AA5/Z5)</f>
-        <v>-19.157384135460852</v>
-      </c>
-      <c r="AC5">
-        <v>120</v>
+      <c r="AB5" s="2" t="e">
+        <f t="shared" ref="AB5:AB37" si="5">20*LOG10(AA5/Z5)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1775,20 +1760,20 @@
         <v>100</v>
       </c>
       <c r="Y6">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="Z6">
-        <v>0.48</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="AA6">
-        <v>5.1999999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="5"/>
-        <v>-19.30475787481576</v>
+        <v>-19.95646161491451</v>
       </c>
       <c r="AC6">
-        <v>111</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1840,20 +1825,20 @@
         <v>150</v>
       </c>
       <c r="Y7">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="Z7">
-        <v>0.48</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.05</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="5"/>
-        <v>-19.64542466079137</v>
+        <v>-19.619535253731392</v>
       </c>
       <c r="AC7">
-        <v>102</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1892,20 +1877,20 @@
         <v>200</v>
       </c>
       <c r="Y8">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="Z8">
-        <v>0.47899999999999998</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AA8">
-        <v>4.8000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="5"/>
-        <v>-19.981885520779517</v>
+        <v>-19.619535253731392</v>
       </c>
       <c r="AC8">
-        <v>93</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1944,20 +1929,20 @@
         <v>250</v>
       </c>
       <c r="Y9">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="Z9">
-        <v>0.47699999999999998</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AA9">
-        <v>4.4999999999999998E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="5"/>
-        <v>-20.506117305295405</v>
+        <v>-19.619535253731392</v>
       </c>
       <c r="AC9">
-        <v>85</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2009,20 +1994,20 @@
         <v>300</v>
       </c>
       <c r="Y10">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="Z10">
-        <v>0.47699999999999998</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AA10">
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="5"/>
-        <v>-21.105381772844268</v>
+        <v>-19.619535253731392</v>
       </c>
       <c r="AC10">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2074,20 +2059,20 @@
         <v>320</v>
       </c>
       <c r="Y11">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="Z11">
-        <v>0.47499999999999998</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AA11">
-        <v>3.9E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="5"/>
-        <v>-21.712580051967343</v>
+        <v>-19.619535253731392</v>
       </c>
       <c r="AC11">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2139,20 +2124,20 @@
         <v>330</v>
       </c>
       <c r="Y12">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="Z12">
-        <v>0.47399999999999998</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AA12">
-        <v>3.5999999999999997E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="5"/>
-        <v>-22.389516818135956</v>
+        <v>-19.619535253731392</v>
       </c>
       <c r="AC12">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2204,20 +2189,20 @@
         <v>340</v>
       </c>
       <c r="Y13">
-        <v>1750</v>
+        <v>800</v>
       </c>
       <c r="Z13">
-        <v>0.47299999999999998</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="AA13">
-        <v>3.5000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="5"/>
-        <v>-22.615861927750718</v>
+        <f>20*LOG10(AA13/Z13)</f>
+        <v>-19.619535253731392</v>
       </c>
       <c r="AC13">
-        <v>62</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2269,20 +2254,20 @@
         <v>350</v>
       </c>
       <c r="Y14">
-        <v>1780</v>
+        <v>900</v>
       </c>
       <c r="Z14">
-        <v>0.47299999999999998</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="AA14">
-        <v>3.4000000000000002E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="5"/>
-        <v>-22.867644473911128</v>
+        <v>-19.662641494254089</v>
       </c>
       <c r="AC14">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -2334,20 +2319,20 @@
         <v>360</v>
       </c>
       <c r="Y15">
-        <v>1800</v>
+        <v>950</v>
       </c>
       <c r="Z15">
-        <v>0.47299999999999998</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="AA15">
-        <v>3.4000000000000002E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="5"/>
-        <v>-22.867644473911128</v>
+        <v>-19.662641494254089</v>
       </c>
       <c r="AC15">
-        <v>59</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2399,20 +2384,20 @@
         <v>370</v>
       </c>
       <c r="Y16">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="Z16">
-        <v>0.47199999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="AA16">
-        <v>3.1E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="5"/>
-        <v>-23.651606095996303</v>
+        <v>-19.157384135460852</v>
       </c>
       <c r="AC16">
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2464,20 +2449,20 @@
         <v>380</v>
       </c>
       <c r="Y17">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="Z17">
-        <v>0.46899999999999997</v>
+        <v>0.48</v>
       </c>
       <c r="AA17">
-        <v>0.03</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="5"/>
-        <v>-23.881031759908417</v>
+        <v>-19.30475787481576</v>
       </c>
       <c r="AC17">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2529,20 +2514,20 @@
         <v>390</v>
       </c>
       <c r="Y18">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="Z18">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AA18">
-        <v>2.1000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="5"/>
-        <v>-26.810770738953096</v>
+        <v>-19.64542466079137</v>
       </c>
       <c r="AC18">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2594,20 +2579,20 @@
         <v>400</v>
       </c>
       <c r="Y19">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="Z19">
-        <v>0.45100000000000001</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="AA19">
-        <v>1.6E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="5"/>
-        <v>-29.001131184440716</v>
+        <v>-19.981885520779517</v>
       </c>
       <c r="AC19">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2658,21 +2643,21 @@
       <c r="T20">
         <v>410</v>
       </c>
-      <c r="Y20" t="s">
-        <v>7</v>
+      <c r="Y20">
+        <v>1400</v>
       </c>
       <c r="Z20">
-        <v>0.96699999999999997</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="AA20">
-        <v>0.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="5"/>
-        <v>-19.708529481660033</v>
+        <v>-20.506117305295405</v>
       </c>
       <c r="AC20">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -2723,9 +2708,21 @@
       <c r="T21">
         <v>420</v>
       </c>
-      <c r="AB21" s="2" t="e">
+      <c r="Y21">
+        <v>1500</v>
+      </c>
+      <c r="Z21">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="AA21">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AB21" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-21.105381772844268</v>
+      </c>
+      <c r="AC21">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -2776,9 +2773,21 @@
       <c r="T22">
         <v>430</v>
       </c>
-      <c r="AB22" s="2" t="e">
+      <c r="Y22">
+        <v>1600</v>
+      </c>
+      <c r="Z22">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AA22">
+        <v>3.9E-2</v>
+      </c>
+      <c r="AB22" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-21.712580051967343</v>
+      </c>
+      <c r="AC22">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -2829,9 +2838,21 @@
       <c r="T23">
         <v>470</v>
       </c>
-      <c r="AB23" s="2" t="e">
+      <c r="Y23">
+        <v>1700</v>
+      </c>
+      <c r="Z23">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="AA23">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AB23" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-22.389516818135956</v>
+      </c>
+      <c r="AC23">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -2882,9 +2903,21 @@
       <c r="T24">
         <v>500</v>
       </c>
-      <c r="AB24" s="2" t="e">
+      <c r="Y24">
+        <v>1750</v>
+      </c>
+      <c r="Z24">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="AA24">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB24" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-22.615861927750718</v>
+      </c>
+      <c r="AC24">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -2935,9 +2968,21 @@
       <c r="T25">
         <v>550</v>
       </c>
-      <c r="AB25" s="2" t="e">
+      <c r="Y25">
+        <v>1780</v>
+      </c>
+      <c r="Z25">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="AA25">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AB25" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-22.867644473911128</v>
+      </c>
+      <c r="AC25">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -2988,9 +3033,21 @@
       <c r="T26">
         <v>600</v>
       </c>
-      <c r="AB26" s="2" t="e">
+      <c r="Y26">
+        <v>1800</v>
+      </c>
+      <c r="Z26">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="AA26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AB26" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-22.867644473911128</v>
+      </c>
+      <c r="AC26">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -3041,9 +3098,21 @@
       <c r="T27">
         <v>650</v>
       </c>
-      <c r="AB27" s="2" t="e">
+      <c r="Y27">
+        <v>1900</v>
+      </c>
+      <c r="Z27">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="AA27">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AB27" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-23.651606095996303</v>
+      </c>
+      <c r="AC27">
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -3094,9 +3163,21 @@
       <c r="T28">
         <v>700</v>
       </c>
-      <c r="AB28" s="2" t="e">
+      <c r="Y28">
+        <v>2000</v>
+      </c>
+      <c r="Z28">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AA28">
+        <v>0.03</v>
+      </c>
+      <c r="AB28" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-23.881031759908417</v>
+      </c>
+      <c r="AC28">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3144,9 +3225,21 @@
         <f t="shared" si="8"/>
         <v>5.7781512503836439</v>
       </c>
-      <c r="AB29" s="2" t="e">
+      <c r="Y29">
+        <v>2500</v>
+      </c>
+      <c r="Z29">
+        <v>0.46</v>
+      </c>
+      <c r="AA29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AB29" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-26.810770738953096</v>
+      </c>
+      <c r="AC29">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -3194,9 +3287,21 @@
         <f t="shared" si="8"/>
         <v>5.8129133566428557</v>
       </c>
-      <c r="AB30" s="2" t="e">
+      <c r="Y30">
+        <v>3000</v>
+      </c>
+      <c r="Z30">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="AA30">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AB30" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-29.001131184440716</v>
+      </c>
+      <c r="AC30">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3457,10 +3562,6 @@
       <c r="H38">
         <f t="shared" si="3"/>
         <v>4.7923916894982534</v>
-      </c>
-      <c r="AB38" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
